--- a/algorithm_implementation/model_1/model_1_evaluation/model_1_realVs_pred.xlsx
+++ b/algorithm_implementation/model_1/model_1_evaluation/model_1_realVs_pred.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="B812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="B813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -6994,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="B820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="B821" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="B826" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="B827" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -11426,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="B1374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -11434,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="B1375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376">
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="B1378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379">
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="B1379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380">
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="B1426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -11850,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="B1427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="B1428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -11866,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="B1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="B1430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431">
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="B1431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1432">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="B1432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1433">
@@ -11898,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="B1433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434">
@@ -11906,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="B1434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435">
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="B1435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="B1436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437">
@@ -11930,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="B1437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438">
@@ -11938,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="B1438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439">
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="B1439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="B1440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="B1441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
@@ -11970,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="B1442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1443">
@@ -11978,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="B1443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1444">
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="B1444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445">
@@ -13802,7 +13802,7 @@
         <v>2</v>
       </c>
       <c r="B1671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1672">
@@ -13810,7 +13810,7 @@
         <v>2</v>
       </c>
       <c r="B1672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1673">
@@ -13818,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="B1673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1674">
@@ -13826,7 +13826,7 @@
         <v>2</v>
       </c>
       <c r="B1674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1675">
@@ -14178,7 +14178,7 @@
         <v>2</v>
       </c>
       <c r="B1718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1719">
@@ -14186,7 +14186,7 @@
         <v>2</v>
       </c>
       <c r="B1719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1720">
@@ -14194,7 +14194,7 @@
         <v>2</v>
       </c>
       <c r="B1720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1721">
@@ -14202,7 +14202,7 @@
         <v>2</v>
       </c>
       <c r="B1721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1722">
@@ -14346,7 +14346,7 @@
         <v>2</v>
       </c>
       <c r="B1739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1740">
@@ -14354,7 +14354,7 @@
         <v>2</v>
       </c>
       <c r="B1740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1741">
@@ -14458,7 +14458,7 @@
         <v>2</v>
       </c>
       <c r="B1753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1754">
@@ -14466,7 +14466,7 @@
         <v>2</v>
       </c>
       <c r="B1754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1755">
@@ -14658,7 +14658,7 @@
         <v>2</v>
       </c>
       <c r="B1778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1779">
@@ -14666,7 +14666,7 @@
         <v>2</v>
       </c>
       <c r="B1779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1780">
@@ -14842,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="B1801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1802">
@@ -14850,7 +14850,7 @@
         <v>2</v>
       </c>
       <c r="B1802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1803">
@@ -14882,7 +14882,7 @@
         <v>2</v>
       </c>
       <c r="B1806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1807">
@@ -14890,7 +14890,7 @@
         <v>2</v>
       </c>
       <c r="B1807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1808">
@@ -14898,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="B1808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1809">
@@ -14906,7 +14906,7 @@
         <v>2</v>
       </c>
       <c r="B1809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1810">
@@ -14914,7 +14914,7 @@
         <v>2</v>
       </c>
       <c r="B1810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1811">
@@ -14922,7 +14922,7 @@
         <v>2</v>
       </c>
       <c r="B1811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1812">
@@ -14946,7 +14946,7 @@
         <v>2</v>
       </c>
       <c r="B1814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1815">
@@ -14954,7 +14954,7 @@
         <v>2</v>
       </c>
       <c r="B1815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1816">
@@ -15026,7 +15026,7 @@
         <v>2</v>
       </c>
       <c r="B1824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1825">
@@ -15034,7 +15034,7 @@
         <v>2</v>
       </c>
       <c r="B1825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1826">
@@ -15066,7 +15066,7 @@
         <v>2</v>
       </c>
       <c r="B1829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1830">
@@ -15074,7 +15074,7 @@
         <v>2</v>
       </c>
       <c r="B1830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1831">
@@ -18698,7 +18698,7 @@
         <v>2</v>
       </c>
       <c r="B2283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2284">
@@ -18706,7 +18706,7 @@
         <v>2</v>
       </c>
       <c r="B2284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2285">
@@ -20242,7 +20242,7 @@
         <v>2</v>
       </c>
       <c r="B2476" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2477">
@@ -20250,7 +20250,7 @@
         <v>2</v>
       </c>
       <c r="B2477" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2478">
@@ -20258,7 +20258,7 @@
         <v>2</v>
       </c>
       <c r="B2478" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2479">
@@ -20266,7 +20266,7 @@
         <v>2</v>
       </c>
       <c r="B2479" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2480">
@@ -20274,7 +20274,7 @@
         <v>2</v>
       </c>
       <c r="B2480" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2481">
@@ -20282,7 +20282,7 @@
         <v>2</v>
       </c>
       <c r="B2481" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -20290,7 +20290,7 @@
         <v>2</v>
       </c>
       <c r="B2482" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -20298,7 +20298,7 @@
         <v>2</v>
       </c>
       <c r="B2483" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -20306,7 +20306,7 @@
         <v>2</v>
       </c>
       <c r="B2484" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2485">
@@ -20314,7 +20314,7 @@
         <v>2</v>
       </c>
       <c r="B2485" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2486">
@@ -20322,7 +20322,7 @@
         <v>2</v>
       </c>
       <c r="B2486" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -20330,7 +20330,7 @@
         <v>2</v>
       </c>
       <c r="B2487" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -20338,7 +20338,7 @@
         <v>2</v>
       </c>
       <c r="B2488" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -20346,7 +20346,7 @@
         <v>2</v>
       </c>
       <c r="B2489" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2490">
@@ -20354,7 +20354,7 @@
         <v>2</v>
       </c>
       <c r="B2490" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2491">
@@ -20362,7 +20362,7 @@
         <v>2</v>
       </c>
       <c r="B2491" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2492">
@@ -20370,7 +20370,7 @@
         <v>2</v>
       </c>
       <c r="B2492" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2493">
@@ -20378,7 +20378,7 @@
         <v>2</v>
       </c>
       <c r="B2493" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2494">
@@ -20386,7 +20386,7 @@
         <v>2</v>
       </c>
       <c r="B2494" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2495">
@@ -20394,7 +20394,7 @@
         <v>2</v>
       </c>
       <c r="B2495" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2496">
@@ -20402,7 +20402,7 @@
         <v>2</v>
       </c>
       <c r="B2496" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2497">
@@ -20410,7 +20410,7 @@
         <v>2</v>
       </c>
       <c r="B2497" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2498">
@@ -20418,7 +20418,7 @@
         <v>2</v>
       </c>
       <c r="B2498" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -20426,7 +20426,7 @@
         <v>2</v>
       </c>
       <c r="B2499" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -20434,7 +20434,7 @@
         <v>2</v>
       </c>
       <c r="B2500" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2501">
@@ -20442,7 +20442,7 @@
         <v>2</v>
       </c>
       <c r="B2501" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2502">
@@ -20450,7 +20450,7 @@
         <v>2</v>
       </c>
       <c r="B2502" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2503">
@@ -20458,7 +20458,7 @@
         <v>2</v>
       </c>
       <c r="B2503" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2504">
@@ -20466,7 +20466,7 @@
         <v>2</v>
       </c>
       <c r="B2504" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2505">
@@ -20474,7 +20474,7 @@
         <v>2</v>
       </c>
       <c r="B2505" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2506">
@@ -20482,7 +20482,7 @@
         <v>2</v>
       </c>
       <c r="B2506" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2507">
@@ -20490,7 +20490,7 @@
         <v>2</v>
       </c>
       <c r="B2507" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2508">
@@ -20498,7 +20498,7 @@
         <v>2</v>
       </c>
       <c r="B2508" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -20506,7 +20506,7 @@
         <v>2</v>
       </c>
       <c r="B2509" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2510">
@@ -20514,7 +20514,7 @@
         <v>2</v>
       </c>
       <c r="B2510" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -20522,7 +20522,7 @@
         <v>2</v>
       </c>
       <c r="B2511" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2512">
@@ -24682,7 +24682,7 @@
         <v>3</v>
       </c>
       <c r="B3031" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3032">
@@ -24690,7 +24690,7 @@
         <v>3</v>
       </c>
       <c r="B3032" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3033">
@@ -24890,7 +24890,7 @@
         <v>3</v>
       </c>
       <c r="B3057" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3058">
@@ -24898,7 +24898,7 @@
         <v>3</v>
       </c>
       <c r="B3058" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3059">
@@ -24970,7 +24970,7 @@
         <v>3</v>
       </c>
       <c r="B3067" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3068">
@@ -24978,7 +24978,7 @@
         <v>3</v>
       </c>
       <c r="B3068" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3069">
@@ -25210,7 +25210,7 @@
         <v>3</v>
       </c>
       <c r="B3097" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3098">
@@ -25218,7 +25218,7 @@
         <v>3</v>
       </c>
       <c r="B3098" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3099">
@@ -25226,7 +25226,7 @@
         <v>3</v>
       </c>
       <c r="B3099" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3100">
@@ -25234,7 +25234,7 @@
         <v>3</v>
       </c>
       <c r="B3100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3101">
@@ -25242,7 +25242,7 @@
         <v>3</v>
       </c>
       <c r="B3101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3102">
@@ -25250,7 +25250,7 @@
         <v>3</v>
       </c>
       <c r="B3102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3103">
@@ -25258,7 +25258,7 @@
         <v>3</v>
       </c>
       <c r="B3103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3104">
@@ -25266,7 +25266,7 @@
         <v>3</v>
       </c>
       <c r="B3104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3105">
@@ -25274,7 +25274,7 @@
         <v>3</v>
       </c>
       <c r="B3105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3106">
@@ -25282,7 +25282,7 @@
         <v>3</v>
       </c>
       <c r="B3106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3107">
@@ -25290,7 +25290,7 @@
         <v>3</v>
       </c>
       <c r="B3107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3108">
@@ -25298,7 +25298,7 @@
         <v>3</v>
       </c>
       <c r="B3108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3109">
@@ -25306,7 +25306,7 @@
         <v>3</v>
       </c>
       <c r="B3109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3110">
@@ -25314,7 +25314,7 @@
         <v>3</v>
       </c>
       <c r="B3110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3111">
@@ -25322,7 +25322,7 @@
         <v>3</v>
       </c>
       <c r="B3111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3112">
@@ -25330,7 +25330,7 @@
         <v>3</v>
       </c>
       <c r="B3112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3113">
@@ -25338,7 +25338,7 @@
         <v>3</v>
       </c>
       <c r="B3113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3114">
@@ -25346,7 +25346,7 @@
         <v>3</v>
       </c>
       <c r="B3114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3115">
@@ -25354,7 +25354,7 @@
         <v>3</v>
       </c>
       <c r="B3115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3116">
@@ -25362,7 +25362,7 @@
         <v>3</v>
       </c>
       <c r="B3116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3117">
@@ -25370,7 +25370,7 @@
         <v>3</v>
       </c>
       <c r="B3117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3118">
@@ -25378,7 +25378,7 @@
         <v>3</v>
       </c>
       <c r="B3118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3119">
@@ -25386,7 +25386,7 @@
         <v>3</v>
       </c>
       <c r="B3119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3120">
@@ -25394,7 +25394,7 @@
         <v>3</v>
       </c>
       <c r="B3120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3121">
@@ -25402,7 +25402,7 @@
         <v>3</v>
       </c>
       <c r="B3121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3122">
@@ -25410,7 +25410,7 @@
         <v>3</v>
       </c>
       <c r="B3122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3123">
@@ -25418,10 +25418,10 @@
         <v>3</v>
       </c>
       <c r="B3123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>